--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -16,17 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>列7</t>
+  </si>
+  <si>
+    <t>列8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +84,23 @@
       <charset val="128"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -89,7 +130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -99,11 +140,188 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -111,6 +329,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B9:I22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B9:I22"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="列1" dataDxfId="9"/>
+    <tableColumn id="2" name="列2" dataDxfId="8"/>
+    <tableColumn id="3" name="列3" dataDxfId="7"/>
+    <tableColumn id="4" name="列4" dataDxfId="6"/>
+    <tableColumn id="5" name="列5" dataDxfId="5"/>
+    <tableColumn id="6" name="列6" dataDxfId="4"/>
+    <tableColumn id="7" name="列7" dataDxfId="3"/>
+    <tableColumn id="8" name="列8" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:N24"/>
+  <dimension ref="B5:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,364 +770,411 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1">
-        <v>6</v>
-      </c>
-      <c r="I13" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1">
-        <v>9</v>
-      </c>
-      <c r="H16" s="1">
-        <v>9</v>
-      </c>
-      <c r="I16" s="1">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4">
+        <v>9</v>
+      </c>
+      <c r="H17" s="4">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D19" s="4">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4">
+        <v>11</v>
+      </c>
+      <c r="I19" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1">
-        <v>13</v>
-      </c>
-      <c r="I20" s="1">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
+        <v>13</v>
+      </c>
+      <c r="E21" s="4">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4">
+        <v>13</v>
+      </c>
+      <c r="I21" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4">
+        <v>14</v>
+      </c>
+      <c r="G22" s="4">
+        <v>14</v>
+      </c>
+      <c r="H22" s="4">
+        <v>14</v>
+      </c>
+      <c r="I22" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="2">
-        <f>AVERAGE( B8:B23)</f>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <f>AVERAGE( B8:B24)</f>
         <v>8.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -16,41 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="1">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>列3</t>
-  </si>
-  <si>
-    <t>列4</t>
-  </si>
-  <si>
-    <t>列5</t>
-  </si>
-  <si>
-    <t>列6</t>
-  </si>
-  <si>
-    <t>列7</t>
-  </si>
-  <si>
-    <t>列8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,23 +60,6 @@
       <charset val="128"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -130,7 +89,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,188 +99,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -329,23 +111,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B9:I22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B9:I22"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="列1" dataDxfId="9"/>
-    <tableColumn id="2" name="列2" dataDxfId="8"/>
-    <tableColumn id="3" name="列3" dataDxfId="7"/>
-    <tableColumn id="4" name="列4" dataDxfId="6"/>
-    <tableColumn id="5" name="列5" dataDxfId="5"/>
-    <tableColumn id="6" name="列6" dataDxfId="4"/>
-    <tableColumn id="7" name="列7" dataDxfId="3"/>
-    <tableColumn id="8" name="列8" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:N25"/>
+  <dimension ref="B5:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,411 +535,364 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>8</v>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4</v>
-      </c>
-      <c r="H12" s="4">
-        <v>4</v>
-      </c>
-      <c r="I12" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4">
-        <v>6</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6</v>
-      </c>
-      <c r="H14" s="4">
-        <v>6</v>
-      </c>
-      <c r="I14" s="4">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4">
-        <v>7</v>
-      </c>
-      <c r="F15" s="4">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4">
-        <v>7</v>
-      </c>
-      <c r="H15" s="4">
-        <v>7</v>
-      </c>
-      <c r="I15" s="4">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4">
-        <v>8</v>
-      </c>
-      <c r="H16" s="4">
-        <v>8</v>
-      </c>
-      <c r="I16" s="4">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4">
-        <v>9</v>
-      </c>
-      <c r="H17" s="4">
-        <v>9</v>
-      </c>
-      <c r="I17" s="4">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4">
-        <v>11</v>
-      </c>
-      <c r="I19" s="4">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4">
-        <v>12</v>
-      </c>
-      <c r="F20" s="4">
-        <v>12</v>
-      </c>
-      <c r="G20" s="4">
-        <v>12</v>
-      </c>
-      <c r="H20" s="4">
-        <v>12</v>
-      </c>
-      <c r="I20" s="4">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4">
-        <v>13</v>
-      </c>
-      <c r="G21" s="4">
-        <v>13</v>
-      </c>
-      <c r="H21" s="4">
-        <v>13</v>
-      </c>
-      <c r="I21" s="4">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4">
-        <v>14</v>
-      </c>
-      <c r="F22" s="4">
-        <v>14</v>
-      </c>
-      <c r="G22" s="4">
-        <v>14</v>
-      </c>
-      <c r="H22" s="4">
-        <v>14</v>
-      </c>
-      <c r="I22" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="1">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="2">
-        <f>AVERAGE( B8:B24)</f>
+      <c r="B24" s="2">
+        <f>AVERAGE( B8:B23)</f>
         <v>8.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -111,6 +115,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4457700"/>
+          <a:ext cx="6108700" cy="4546600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:N24"/>
+  <dimension ref="B5:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>10</v>
       </c>
@@ -770,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>11</v>
       </c>
@@ -796,7 +849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>12</v>
       </c>
@@ -822,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>13</v>
       </c>
@@ -848,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>14</v>
       </c>
@@ -874,25 +927,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <f>AVERAGE( B8:B23)</f>
         <v>8.5</v>
       </c>
     </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
